--- a/data/trans_orig/IBSE_100-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/IBSE_100-Provincia-trans_orig.xlsx
@@ -563,7 +563,7 @@
         <v>74.30316576231809</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>71.65649348271378</v>
+        <v>71.6564934827138</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>72.98339192251522</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>73.2541136252666</v>
+        <v>73.12345033484164</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>70.85384018701215</v>
+        <v>70.83238511900272</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>72.33648036084993</v>
+        <v>72.37064341660526</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>75.28935654657934</v>
+        <v>75.25718869257811</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>72.37363815180125</v>
+        <v>72.38357751721932</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>73.60330401013154</v>
+        <v>73.60834314760713</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>82.80380060230252</v>
+        <v>82.8038006023025</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>79.09084460848034</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>81.01373036290219</v>
+        <v>81.05822347191778</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>77.78898074171856</v>
+        <v>77.81982496471824</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>79.87522724465575</v>
+        <v>79.91045494142851</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>84.41401527841597</v>
+        <v>84.27201261841478</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>80.25153221972947</v>
+        <v>80.30637718443458</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>81.88321787381616</v>
+        <v>81.8561986061559</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>78.39408861571023</v>
+        <v>78.30499981275703</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>74.12386232879201</v>
+        <v>73.79916362240203</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>76.53465904318664</v>
+        <v>76.341842065695</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>82.45428230196988</v>
+        <v>82.15024886621354</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>77.7096262564378</v>
+        <v>77.52192098299243</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>79.17664585343665</v>
+        <v>79.26887877584811</v>
       </c>
     </row>
     <row r="13">
@@ -725,13 +725,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>84.62779183295304</v>
+        <v>84.62779183295301</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>79.24892785905669</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>81.78254945278609</v>
+        <v>81.78254945278607</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>81.95928609116744</v>
+        <v>81.81396447165849</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>76.8662382491132</v>
+        <v>76.85486701140614</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>80.13256153769444</v>
+        <v>80.19993246007014</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>86.93832513627262</v>
+        <v>86.83463429167547</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>81.15721999786315</v>
+        <v>81.13084536876089</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>83.30653526901661</v>
+        <v>83.27816944541448</v>
       </c>
     </row>
     <row r="16">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>67.04521221827434</v>
+        <v>66.86249550084253</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>63.32378692502155</v>
+        <v>63.24513905011473</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>65.52246125251509</v>
+        <v>65.37035088160629</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>70.85667814179065</v>
+        <v>70.81970076637452</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>66.28983118257862</v>
+        <v>66.25653814925779</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>67.86701659040951</v>
+        <v>67.79944058635218</v>
       </c>
     </row>
     <row r="19">
@@ -838,7 +838,7 @@
         <v>77.33606110160066</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>75.69232253535075</v>
+        <v>75.69232253535073</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>76.52374441025438</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>75.08328600341598</v>
+        <v>74.97323479154701</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>73.69760653979615</v>
+        <v>73.38243171676157</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>75.02110934357184</v>
+        <v>74.88800819070948</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>79.7020078794324</v>
+        <v>79.37800759933486</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>77.91393468456648</v>
+        <v>77.68637336382851</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>78.05709473963125</v>
+        <v>78.04283645707579</v>
       </c>
     </row>
     <row r="22">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>78.14467117653537</v>
+        <v>78.10057924478406</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>74.39619486152559</v>
+        <v>74.43978169239419</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>76.59956097236598</v>
+        <v>76.50956707303827</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>80.96594160666332</v>
+        <v>81.06312348026694</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>77.08296050740249</v>
+        <v>76.93171291667456</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>78.54428666952643</v>
+        <v>78.58030430786043</v>
       </c>
     </row>
     <row r="25">
@@ -951,7 +951,7 @@
         <v>68.66618624390065</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>71.10302490200789</v>
+        <v>71.1030249020079</v>
       </c>
     </row>
     <row r="26">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>72.1541353023859</v>
+        <v>72.11393008403103</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>67.26364571493106</v>
+        <v>67.46534201304318</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>70.10528298704017</v>
+        <v>70.05422895175278</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>75.18363523585417</v>
+        <v>75.21774353072583</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>69.94378717031476</v>
+        <v>70.11416831599244</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>72.17126777763029</v>
+        <v>72.11862063793031</v>
       </c>
     </row>
     <row r="28">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>77.29240554290247</v>
+        <v>77.34859505492462</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>73.42641592506097</v>
+        <v>73.40278460411598</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>75.47549982475108</v>
+        <v>75.48963261700409</v>
       </c>
     </row>
     <row r="30">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>78.62059031951068</v>
+        <v>78.63733324905557</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>74.5412085085795</v>
+        <v>74.51342436607966</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>76.3625159007171</v>
+        <v>76.38942344110635</v>
       </c>
     </row>
     <row r="31">
